--- a/delivrables/tables/D6.1/Deliverables.xlsx
+++ b/delivrables/tables/D6.1/Deliverables.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FabioCruz/Documents/01-Projects/TechTraPlastiCE/techtraplastice/delivrables/tables/D6.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B197E3-E3C9-3645-956F-9B7A13D5D6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2208FC8F-7AFE-B149-BB05-4CE949EA8D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deliverables" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Deliverables!$B$5:$J$28</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="148">
   <si>
     <t>Deliverables for Project</t>
   </si>
@@ -199,9 +202,6 @@
     <t>D7</t>
   </si>
   <si>
-    <t>Interviews reports</t>
-  </si>
-  <si>
     <t>Based on provided guidelines, partners that will implement the Search Conferences methodology will conform interdisciplinary staff and researchers to prepare one-on-one conversations with defined actors (industries, social and economic actors involved in the reuse challenge, to explore in depth the leverage, and provide together a more comprehensive problems definition. All these conversations will need to be reported  in a document file.</t>
   </si>
   <si>
@@ -220,9 +220,6 @@
     <t>Benchmarking study</t>
   </si>
   <si>
-    <t>The identified problems involving multi-actors visions and roles are foreseen to be problems that are also faced in other countries and cities. The benchmarking will help to find inspiration in how similar multilevel problems have been approached to start identifying clues of actions. The benchmarking study will be structured as a public document available for all the partners.</t>
-  </si>
-  <si>
     <t>D3.3</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
   </si>
   <si>
     <t>Each search conference will deliver a report containing the results of the 1-day event, the number of participants, the minutes of the encounter, and especially the specific solutions/projects identified among the multi-actors participants and the University.</t>
-  </si>
-  <si>
-    <t>31 Jan 2027</t>
   </si>
   <si>
     <t>D3.4</t>
@@ -443,14 +437,44 @@
     <t>31 Jul 2026</t>
   </si>
   <si>
-    <t>4 events reports</t>
+    <t>Comprensive problem definition on the reuse challenge</t>
+  </si>
+  <si>
+    <t>Report on contacts and results of interviews</t>
+  </si>
+  <si>
+    <t>The universities where the Search Conferences will be held will have identified and contacted the most relevant organisations to participate in the Search Conferences. The aim is to identify their points of interest, pre-identify concrete initiatives and engage the participation of decision-makers.</t>
+  </si>
+  <si>
+    <t>31 Nov 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The identified problems involving multi-actors visions and roles are foreseen to be problems that are also faced in other countries and cities. The benchmarking will help to find inspiration in how similar multilevel problems have been approached to start identifying clues of actions. The benchmarking study will be structured as a public document available for all the partners.  </t>
+  </si>
+  <si>
+    <t>4 Events reports (One per institution)</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>PUCV - COLUMBUS</t>
+  </si>
+  <si>
+    <t>D3.5</t>
+  </si>
+  <si>
+    <t>31 Jun 2027</t>
+  </si>
+  <si>
+    <t>31 May 2027</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -461,18 +485,27 @@
     <font>
       <sz val="22"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -541,19 +574,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -868,979 +918,1023 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N27"/>
+  <dimension ref="B2:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="158" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="139" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="14" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="8.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="15.6640625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="28" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:14" ht="203" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="23" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:14" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="2:14" ht="28" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="2:14" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="K6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:14" ht="43" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="2" t="s">
+      <c r="K7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="2" t="s">
+      <c r="K8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:14" ht="43" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="2" t="s">
+      <c r="K9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:14" ht="29" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="2" t="s">
+      <c r="K10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:14" ht="43" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="2" t="s">
+      <c r="K11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="2:14" ht="99" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="K12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="2" t="s">
+      <c r="J14" s="10">
+        <v>46326</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+    <row r="15" spans="2:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="C15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="2:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="2" t="s">
+    <row r="17" spans="2:14" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="2" t="s">
+    <row r="24" spans="2:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="2" t="s">
+    <row r="26" spans="2:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="2" t="s">
+      <c r="I26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="2" t="s">
+    <row r="27" spans="2:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="2" t="s">
+      <c r="I27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="2" t="s">
+    <row r="28" spans="2:14" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="I28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="J28" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="2" t="s">
+      <c r="K28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1848,6 +1942,7 @@
   <mergeCells count="1">
     <mergeCell ref="B4:N4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>